--- a/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma31052021.xlsx
+++ b/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma31052021.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
   <si>
     <t>OBJETIVOS</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Desarrollar pruebas de asociación entre Matlab y el listado de imágenes de los tipos de daños o condiciones más frecuentes.</t>
   </si>
   <si>
-    <t>Capitulo de procesamiento de imágenes para el documento de entrega final.</t>
-  </si>
-  <si>
     <t>Integración del algoritmo base para el procesamiento de imágenes termográficas en Matlab.</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Determinación de condición de un panel fotovoltaico a partir de imagen termografica previamente verificada.</t>
   </si>
   <si>
-    <t>Capitulo de asociación de listado de imágenes; tipos de daños o condiciones más frecuentes con Matlab para el documento de entrega final.</t>
-  </si>
-  <si>
     <t>Investigación sobre escenarios más comunes para la captura de imágenes termografica a paneles fotovoltaicos.</t>
   </si>
   <si>
@@ -449,15 +443,9 @@
     <t>Conclusión de la prueba realizada.</t>
   </si>
   <si>
-    <t>Capitulo de  un algoritmo de técnicas de procesamiento de imágenes en Matlab que determine la condición de un panel fotovoltaico a partir del análisis de imágenes termográficas para el documento de entrega final.</t>
-  </si>
-  <si>
     <t>Algoritmo de procesamiento de imágenes  termográficas en Matlab.</t>
   </si>
   <si>
-    <t>Documentación de hallazgos encontrados.</t>
-  </si>
-  <si>
     <t>Tipos  de daños o condiciones observados en los paneles solares mediante imágenes termográficas.</t>
   </si>
   <si>
@@ -465,9 +453,6 @@
   </si>
   <si>
     <t>Relación de las formas u objetos obtenidos en el procesamiento de imágenes termográficas en Matlab con el listado de tipos de daños o condiciones más frecuentes.</t>
-  </si>
-  <si>
-    <t>Capitulo de Tipos  de daños o condiciones observados en los paneles solares mediante imágenes termográficas para el documento de entrega final.</t>
   </si>
   <si>
     <t>Investigación sobre almacenamiento de información en Matlab para la respectiva construcción de conjunto de imágenes.</t>
@@ -2044,60 +2029,88 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,38 +2120,113 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2208,141 +2296,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2697,93 +2682,93 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
     </row>
     <row r="5" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2869,10 +2854,10 @@
     </row>
     <row r="7" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="91"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -2899,10 +2884,10 @@
       <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21"/>
@@ -2931,8 +2916,8 @@
       <c r="AB9" s="22"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="16"/>
@@ -2959,8 +2944,8 @@
       <c r="AB10" s="23"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="E11" s="24"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -2987,10 +2972,10 @@
       <c r="AB11" s="25"/>
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="26"/>
@@ -3019,8 +3004,8 @@
       <c r="AB12" s="23"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="86"/>
       <c r="E13" s="26"/>
       <c r="F13" s="16"/>
       <c r="G13" s="33"/>
@@ -3047,8 +3032,8 @@
       <c r="AB13" s="23"/>
     </row>
     <row r="14" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="86"/>
       <c r="E14" s="26"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -3075,10 +3060,10 @@
       <c r="AB14" s="23"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -3107,8 +3092,8 @@
       <c r="AB15" s="22"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="86"/>
       <c r="E16" s="26"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -3135,8 +3120,8 @@
       <c r="AB16" s="23"/>
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="94"/>
       <c r="E17" s="24"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3191,10 +3176,10 @@
       <c r="AB18" s="23"/>
     </row>
     <row r="19" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="91"/>
       <c r="E19" s="36"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -3221,10 +3206,10 @@
       <c r="AB19" s="23"/>
     </row>
     <row r="20" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="21"/>
@@ -3253,8 +3238,8 @@
       <c r="AB20" s="22"/>
     </row>
     <row r="21" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -3281,8 +3266,8 @@
       <c r="AB21" s="23"/>
     </row>
     <row r="22" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86"/>
       <c r="E22" s="24"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -3309,10 +3294,10 @@
       <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="21"/>
@@ -3341,8 +3326,8 @@
       <c r="AB23" s="22"/>
     </row>
     <row r="24" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="86"/>
       <c r="E24" s="26"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3369,8 +3354,8 @@
       <c r="AB24" s="23"/>
     </row>
     <row r="25" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="86"/>
       <c r="E25" s="24"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -3397,10 +3382,10 @@
       <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="21"/>
@@ -3429,8 +3414,8 @@
       <c r="AB26" s="22"/>
     </row>
     <row r="27" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="86"/>
       <c r="E27" s="26"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3457,8 +3442,8 @@
       <c r="AB27" s="23"/>
     </row>
     <row r="28" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="94"/>
       <c r="E28" s="24"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3513,10 +3498,10 @@
       <c r="AB29" s="23"/>
     </row>
     <row r="30" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="91"/>
       <c r="E30" s="26"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -3543,10 +3528,10 @@
       <c r="AB30" s="23"/>
     </row>
     <row r="31" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21"/>
@@ -3575,8 +3560,8 @@
       <c r="AB31" s="22"/>
     </row>
     <row r="32" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="86"/>
       <c r="E32" s="26"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -3603,8 +3588,8 @@
       <c r="AB32" s="23"/>
     </row>
     <row r="33" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="86"/>
       <c r="E33" s="24"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -3631,10 +3616,10 @@
       <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="26"/>
@@ -3663,8 +3648,8 @@
       <c r="AB34" s="23"/>
     </row>
     <row r="35" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="86"/>
       <c r="E35" s="26"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3691,8 +3676,8 @@
       <c r="AB35" s="23"/>
     </row>
     <row r="36" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="86"/>
       <c r="E36" s="26"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3719,10 +3704,10 @@
       <c r="AB36" s="23"/>
     </row>
     <row r="37" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="21"/>
@@ -3751,8 +3736,8 @@
       <c r="AB37" s="22"/>
     </row>
     <row r="38" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="86"/>
       <c r="E38" s="26"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3779,8 +3764,8 @@
       <c r="AB38" s="23"/>
     </row>
     <row r="39" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="92"/>
       <c r="E39" s="24"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -3807,10 +3792,10 @@
       <c r="AB39" s="25"/>
     </row>
     <row r="40" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="21"/>
@@ -3839,8 +3824,8 @@
       <c r="AB40" s="22"/>
     </row>
     <row r="41" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="86"/>
       <c r="E41" s="26"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -3867,8 +3852,8 @@
       <c r="AB41" s="23"/>
     </row>
     <row r="42" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="75"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="94"/>
       <c r="E42" s="24"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -3923,10 +3908,10 @@
       <c r="AB43" s="23"/>
     </row>
     <row r="44" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="91"/>
       <c r="E44" s="26"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -3953,10 +3938,10 @@
       <c r="AB44" s="23"/>
     </row>
     <row r="45" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="21"/>
@@ -3985,8 +3970,8 @@
       <c r="AB45" s="22"/>
     </row>
     <row r="46" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="86"/>
       <c r="E46" s="26"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -4013,8 +3998,8 @@
       <c r="AB46" s="23"/>
     </row>
     <row r="47" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="86"/>
       <c r="E47" s="24"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -4041,10 +4026,10 @@
       <c r="AB47" s="25"/>
     </row>
     <row r="48" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="21"/>
@@ -4073,8 +4058,8 @@
       <c r="AB48" s="22"/>
     </row>
     <row r="49" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="86"/>
       <c r="E49" s="26"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -4101,8 +4086,8 @@
       <c r="AB49" s="23"/>
     </row>
     <row r="50" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="86"/>
       <c r="E50" s="24"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -4129,10 +4114,10 @@
       <c r="AB50" s="25"/>
     </row>
     <row r="51" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="21"/>
@@ -4161,8 +4146,8 @@
       <c r="AB51" s="22"/>
     </row>
     <row r="52" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="86"/>
       <c r="E52" s="26"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -4189,8 +4174,8 @@
       <c r="AB52" s="23"/>
     </row>
     <row r="53" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="92"/>
       <c r="E53" s="24"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -4217,10 +4202,10 @@
       <c r="AB53" s="25"/>
     </row>
     <row r="54" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="93" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="21"/>
@@ -4249,8 +4234,8 @@
       <c r="AB54" s="22"/>
     </row>
     <row r="55" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="86"/>
       <c r="E55" s="26"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -4277,8 +4262,8 @@
       <c r="AB55" s="23"/>
     </row>
     <row r="56" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="92"/>
       <c r="E56" s="24"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -4305,10 +4290,10 @@
       <c r="AB56" s="25"/>
     </row>
     <row r="57" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="85" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="21"/>
@@ -4337,8 +4322,8 @@
       <c r="AB57" s="22"/>
     </row>
     <row r="58" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="69"/>
-      <c r="C58" s="70"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="86"/>
       <c r="E58" s="26"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -4365,8 +4350,8 @@
       <c r="AB58" s="23"/>
     </row>
     <row r="59" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="75"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="94"/>
       <c r="E59" s="24"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -4419,10 +4404,10 @@
       <c r="AB60" s="23"/>
     </row>
     <row r="61" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="86"/>
+      <c r="C61" s="82"/>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -4449,10 +4434,10 @@
       <c r="AB61" s="39"/>
     </row>
     <row r="62" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="26"/>
@@ -4481,8 +4466,8 @@
       <c r="AB62" s="23"/>
     </row>
     <row r="63" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="69"/>
-      <c r="C63" s="70"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="86"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -4509,8 +4494,8 @@
       <c r="AB63" s="34"/>
     </row>
     <row r="64" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="69"/>
-      <c r="C64" s="70"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="86"/>
       <c r="E64" s="26"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -4537,10 +4522,10 @@
       <c r="AB64" s="23"/>
     </row>
     <row r="65" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="86" t="s">
         <v>42</v>
       </c>
       <c r="E65" s="21"/>
@@ -4569,8 +4554,8 @@
       <c r="AB65" s="22"/>
     </row>
     <row r="66" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="86"/>
       <c r="E66" s="26"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -4597,8 +4582,8 @@
       <c r="AB66" s="34"/>
     </row>
     <row r="67" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="86"/>
       <c r="E67" s="24"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -4625,10 +4610,10 @@
       <c r="AB67" s="25"/>
     </row>
     <row r="68" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="88" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="26"/>
@@ -4657,8 +4642,8 @@
       <c r="AB68" s="23"/>
     </row>
     <row r="69" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="69"/>
-      <c r="C69" s="78"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="88"/>
       <c r="E69" s="26"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -4685,8 +4670,8 @@
       <c r="AB69" s="23"/>
     </row>
     <row r="70" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="73"/>
-      <c r="C70" s="79"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="89"/>
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
@@ -4714,11 +4699,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:AB4"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="B8:C8"/>
@@ -4735,27 +4736,11 @@
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:AB4"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -5015,19 +5000,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
       <c r="M2" s="56"/>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
@@ -5042,17 +5027,17 @@
       <c r="X2" s="56"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="56"/>
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
@@ -5067,17 +5052,17 @@
       <c r="X3" s="56"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
       <c r="M4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
@@ -5342,11 +5327,11 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="F18" s="64">
         <f>SUM(F8:F16)</f>
         <v>2400000</v>
@@ -5395,353 +5380,298 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="163" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="163" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="163" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="163" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="163" customWidth="1"/>
-    <col min="6" max="6" width="34" style="163" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="163"/>
+    <col min="1" max="1" width="40.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="73" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="73" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="34" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="104"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="104"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="104"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="104"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="104"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="104"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="168"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="167" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="168"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="171"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="167" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="171"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="168"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="168"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="167" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="104"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="168"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="165" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="168"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="167" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="170" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="170" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="167" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="165" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="167" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="104"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="168"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="167" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167" t="s">
+      <c r="D21" s="76"/>
+      <c r="E21" s="78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="167" t="s">
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="104"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="170" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="168"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="167" t="s">
+    <row r="23" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="105"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" s="171"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5774,141 +5704,141 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
     </row>
     <row r="3" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
     </row>
     <row r="4" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
     </row>
     <row r="5" spans="2:44" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:44" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5916,136 +5846,136 @@
         <v>39</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="151">
+      <c r="E6" s="72">
         <v>1</v>
       </c>
-      <c r="F6" s="151">
+      <c r="F6" s="72">
         <v>2</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6" s="72">
         <v>3</v>
       </c>
-      <c r="H6" s="151">
+      <c r="H6" s="72">
         <v>4</v>
       </c>
-      <c r="I6" s="151">
+      <c r="I6" s="72">
         <v>5</v>
       </c>
-      <c r="J6" s="151">
+      <c r="J6" s="72">
         <v>6</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="72">
         <v>7</v>
       </c>
-      <c r="L6" s="151">
+      <c r="L6" s="72">
         <v>8</v>
       </c>
-      <c r="M6" s="151">
+      <c r="M6" s="72">
         <v>9</v>
       </c>
-      <c r="N6" s="151">
+      <c r="N6" s="72">
         <v>10</v>
       </c>
-      <c r="O6" s="151">
+      <c r="O6" s="72">
         <v>11</v>
       </c>
-      <c r="P6" s="151">
+      <c r="P6" s="72">
         <v>12</v>
       </c>
-      <c r="Q6" s="151">
+      <c r="Q6" s="72">
         <v>13</v>
       </c>
-      <c r="R6" s="151">
+      <c r="R6" s="72">
         <v>14</v>
       </c>
-      <c r="S6" s="151">
+      <c r="S6" s="72">
         <v>15</v>
       </c>
-      <c r="T6" s="151">
+      <c r="T6" s="72">
         <v>16</v>
       </c>
-      <c r="U6" s="151">
+      <c r="U6" s="72">
         <v>17</v>
       </c>
-      <c r="V6" s="151">
+      <c r="V6" s="72">
         <v>18</v>
       </c>
-      <c r="W6" s="151">
+      <c r="W6" s="72">
         <v>19</v>
       </c>
-      <c r="X6" s="151">
+      <c r="X6" s="72">
         <v>20</v>
       </c>
-      <c r="Y6" s="151">
+      <c r="Y6" s="72">
         <v>21</v>
       </c>
-      <c r="Z6" s="151">
+      <c r="Z6" s="72">
         <v>22</v>
       </c>
-      <c r="AA6" s="151">
+      <c r="AA6" s="72">
         <v>23</v>
       </c>
-      <c r="AB6" s="151">
+      <c r="AB6" s="72">
         <v>24</v>
       </c>
-      <c r="AC6" s="151">
+      <c r="AC6" s="72">
         <v>25</v>
       </c>
-      <c r="AD6" s="151">
+      <c r="AD6" s="72">
         <v>26</v>
       </c>
-      <c r="AE6" s="151">
+      <c r="AE6" s="72">
         <v>27</v>
       </c>
-      <c r="AF6" s="151">
+      <c r="AF6" s="72">
         <v>28</v>
       </c>
-      <c r="AG6" s="151">
+      <c r="AG6" s="72">
         <v>29</v>
       </c>
-      <c r="AH6" s="151">
+      <c r="AH6" s="72">
         <v>30</v>
       </c>
-      <c r="AI6" s="151">
+      <c r="AI6" s="72">
         <v>31</v>
       </c>
-      <c r="AJ6" s="151">
+      <c r="AJ6" s="72">
         <v>32</v>
       </c>
-      <c r="AK6" s="151">
+      <c r="AK6" s="72">
         <v>33</v>
       </c>
-      <c r="AL6" s="151">
+      <c r="AL6" s="72">
         <v>34</v>
       </c>
-      <c r="AM6" s="151">
+      <c r="AM6" s="72">
         <v>35</v>
       </c>
-      <c r="AN6" s="151">
+      <c r="AN6" s="72">
         <v>36</v>
       </c>
-      <c r="AO6" s="151">
+      <c r="AO6" s="72">
         <v>37</v>
       </c>
-      <c r="AP6" s="151">
+      <c r="AP6" s="72">
         <v>38</v>
       </c>
-      <c r="AQ6" s="151">
+      <c r="AQ6" s="72">
         <v>39</v>
       </c>
-      <c r="AR6" s="151">
+      <c r="AR6" s="72">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:44" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:44" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="111"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -6088,10 +6018,10 @@
       <c r="AR8" s="20"/>
     </row>
     <row r="9" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="152" t="s">
+      <c r="B9" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="113" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21"/>
@@ -6136,8 +6066,8 @@
       <c r="AR9" s="22"/>
     </row>
     <row r="10" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="146"/>
-      <c r="C10" s="153"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="106"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -6180,8 +6110,8 @@
       <c r="AR10" s="23"/>
     </row>
     <row r="11" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="146"/>
-      <c r="C11" s="153"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="106"/>
       <c r="E11" s="24"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -6224,10 +6154,10 @@
       <c r="AR11" s="25"/>
     </row>
     <row r="12" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="153" t="s">
+      <c r="B12" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="26"/>
@@ -6272,12 +6202,12 @@
       <c r="AR12" s="23"/>
     </row>
     <row r="13" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="146"/>
-      <c r="C13" s="153"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="106"/>
       <c r="E13" s="26"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -6316,8 +6246,8 @@
       <c r="AR13" s="23"/>
     </row>
     <row r="14" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="146"/>
-      <c r="C14" s="153"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="106"/>
       <c r="E14" s="26"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -6360,10 +6290,10 @@
       <c r="AR14" s="23"/>
     </row>
     <row r="15" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="146" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="153" t="s">
+      <c r="B15" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -6408,8 +6338,8 @@
       <c r="AR15" s="22"/>
     </row>
     <row r="16" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="146"/>
-      <c r="C16" s="153"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="106"/>
       <c r="E16" s="26"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -6452,8 +6382,8 @@
       <c r="AR16" s="23"/>
     </row>
     <row r="17" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="146"/>
-      <c r="C17" s="153"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="106"/>
       <c r="E17" s="24"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -6496,10 +6426,10 @@
       <c r="AR17" s="25"/>
     </row>
     <row r="18" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="153" t="s">
+      <c r="B18" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21"/>
@@ -6544,8 +6474,8 @@
       <c r="AR18" s="22"/>
     </row>
     <row r="19" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="146"/>
-      <c r="C19" s="153"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="106"/>
       <c r="E19" s="26"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -6588,8 +6518,8 @@
       <c r="AR19" s="23"/>
     </row>
     <row r="20" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="146"/>
-      <c r="C20" s="153"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="106"/>
       <c r="E20" s="24"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -6632,10 +6562,10 @@
       <c r="AR20" s="25"/>
     </row>
     <row r="21" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="21"/>
@@ -6680,8 +6610,8 @@
       <c r="AR21" s="22"/>
     </row>
     <row r="22" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="146"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="88"/>
       <c r="E22" s="26"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -6724,8 +6654,8 @@
       <c r="AR22" s="23"/>
     </row>
     <row r="23" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="147"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="89"/>
       <c r="E23" s="24"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -6812,10 +6742,10 @@
       <c r="AR24" s="23"/>
     </row>
     <row r="25" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="157" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="158"/>
+      <c r="B25" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="119"/>
       <c r="E25" s="36"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -6858,10 +6788,10 @@
       <c r="AR25" s="23"/>
     </row>
     <row r="26" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="78" t="s">
+      <c r="B26" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="21"/>
@@ -6906,8 +6836,8 @@
       <c r="AR26" s="22"/>
     </row>
     <row r="27" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="78"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="88"/>
       <c r="E27" s="32"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -6950,8 +6880,8 @@
       <c r="AR27" s="23"/>
     </row>
     <row r="28" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="88"/>
       <c r="E28" s="24"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -6994,10 +6924,10 @@
       <c r="AR28" s="25"/>
     </row>
     <row r="29" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="78" t="s">
+      <c r="B29" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="21"/>
@@ -7042,12 +6972,12 @@
       <c r="AR29" s="22"/>
     </row>
     <row r="30" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="88"/>
       <c r="E30" s="26"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
@@ -7086,8 +7016,8 @@
       <c r="AR30" s="23"/>
     </row>
     <row r="31" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="69"/>
-      <c r="C31" s="78"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="88"/>
       <c r="E31" s="24"/>
       <c r="F31" s="18"/>
       <c r="G31" s="16"/>
@@ -7130,10 +7060,10 @@
       <c r="AR31" s="25"/>
     </row>
     <row r="32" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="78" t="s">
+      <c r="B32" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="21"/>
@@ -7178,8 +7108,8 @@
       <c r="AR32" s="22"/>
     </row>
     <row r="33" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="78"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="88"/>
       <c r="E33" s="26"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -7222,8 +7152,8 @@
       <c r="AR33" s="23"/>
     </row>
     <row r="34" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
-      <c r="C34" s="78"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="88"/>
       <c r="E34" s="24"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -7266,10 +7196,10 @@
       <c r="AR34" s="25"/>
     </row>
     <row r="35" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="78" t="s">
+      <c r="B35" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="21"/>
@@ -7314,15 +7244,15 @@
       <c r="AR35" s="22"/>
     </row>
     <row r="36" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="78"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="88"/>
       <c r="E36" s="26"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -7358,8 +7288,8 @@
       <c r="AR36" s="23"/>
     </row>
     <row r="37" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="73"/>
-      <c r="C37" s="79"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="89"/>
       <c r="E37" s="24"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -7446,10 +7376,10 @@
       <c r="AR38" s="23"/>
     </row>
     <row r="39" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="157" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="158"/>
+      <c r="B39" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="119"/>
       <c r="E39" s="26"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -7492,10 +7422,10 @@
       <c r="AR39" s="23"/>
     </row>
     <row r="40" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="88" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="21"/>
@@ -7540,8 +7470,8 @@
       <c r="AR40" s="22"/>
     </row>
     <row r="41" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="78"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="88"/>
       <c r="E41" s="26"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -7550,9 +7480,9 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -7584,8 +7514,8 @@
       <c r="AR41" s="23"/>
     </row>
     <row r="42" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="69"/>
-      <c r="C42" s="78"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="88"/>
       <c r="E42" s="24"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -7628,10 +7558,10 @@
       <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="78" t="s">
+      <c r="B43" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="26"/>
@@ -7676,8 +7606,8 @@
       <c r="AR43" s="23"/>
     </row>
     <row r="44" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="69"/>
-      <c r="C44" s="78"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="88"/>
       <c r="E44" s="26"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -7720,8 +7650,8 @@
       <c r="AR44" s="23"/>
     </row>
     <row r="45" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="69"/>
-      <c r="C45" s="78"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="88"/>
       <c r="E45" s="26"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -7764,10 +7694,10 @@
       <c r="AR45" s="23"/>
     </row>
     <row r="46" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="78" t="s">
+      <c r="B46" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="88" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="21"/>
@@ -7812,8 +7742,8 @@
       <c r="AR46" s="22"/>
     </row>
     <row r="47" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
-      <c r="C47" s="78"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="88"/>
       <c r="E47" s="26"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -7856,8 +7786,8 @@
       <c r="AR47" s="23"/>
     </row>
     <row r="48" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="154"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="114"/>
       <c r="E48" s="24"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -7900,10 +7830,10 @@
       <c r="AR48" s="25"/>
     </row>
     <row r="49" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="78" t="s">
+      <c r="B49" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="88" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="21"/>
@@ -7948,8 +7878,8 @@
       <c r="AR49" s="22"/>
     </row>
     <row r="50" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="69"/>
-      <c r="C50" s="78"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="88"/>
       <c r="E50" s="26"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -7992,8 +7922,8 @@
       <c r="AR50" s="23"/>
     </row>
     <row r="51" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="154"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="114"/>
       <c r="E51" s="24"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -8036,10 +7966,10 @@
       <c r="AR51" s="25"/>
     </row>
     <row r="52" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="155" t="s">
+      <c r="B52" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="117" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="21"/>
@@ -8084,8 +8014,8 @@
       <c r="AR52" s="22"/>
     </row>
     <row r="53" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="69"/>
-      <c r="C53" s="78"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="88"/>
       <c r="E53" s="26"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -8102,8 +8032,8 @@
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="148"/>
-      <c r="V53" s="148"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
       <c r="W53" s="16"/>
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
@@ -8128,8 +8058,8 @@
       <c r="AR53" s="23"/>
     </row>
     <row r="54" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-      <c r="C54" s="79"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="89"/>
       <c r="E54" s="24"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -8216,10 +8146,10 @@
       <c r="AR55" s="23"/>
     </row>
     <row r="56" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="159" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="160"/>
+      <c r="B56" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="111"/>
       <c r="E56" s="26"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -8262,10 +8192,10 @@
       <c r="AR56" s="23"/>
     </row>
     <row r="57" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="152" t="s">
+      <c r="B57" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="113" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="21"/>
@@ -8310,8 +8240,8 @@
       <c r="AR57" s="22"/>
     </row>
     <row r="58" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="146"/>
-      <c r="C58" s="153"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="106"/>
       <c r="E58" s="26"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -8354,8 +8284,8 @@
       <c r="AR58" s="23"/>
     </row>
     <row r="59" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="146"/>
-      <c r="C59" s="153"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="106"/>
       <c r="E59" s="24"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -8398,10 +8328,10 @@
       <c r="AR59" s="25"/>
     </row>
     <row r="60" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="153" t="s">
+      <c r="B60" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="21"/>
@@ -8446,8 +8376,8 @@
       <c r="AR60" s="22"/>
     </row>
     <row r="61" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="146"/>
-      <c r="C61" s="153"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="106"/>
       <c r="E61" s="26"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -8467,8 +8397,8 @@
       <c r="U61" s="16"/>
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="148"/>
-      <c r="Y61" s="148"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
       <c r="AB61" s="16"/>
@@ -8490,8 +8420,8 @@
       <c r="AR61" s="23"/>
     </row>
     <row r="62" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="146"/>
-      <c r="C62" s="153"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="106"/>
       <c r="E62" s="24"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -8534,10 +8464,10 @@
       <c r="AR62" s="25"/>
     </row>
     <row r="63" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="153" t="s">
+      <c r="B63" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="21"/>
@@ -8582,8 +8512,8 @@
       <c r="AR63" s="22"/>
     </row>
     <row r="64" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="146"/>
-      <c r="C64" s="153"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="106"/>
       <c r="E64" s="26"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -8605,7 +8535,7 @@
       <c r="W64" s="16"/>
       <c r="X64" s="16"/>
       <c r="Y64" s="16"/>
-      <c r="Z64" s="148"/>
+      <c r="Z64" s="69"/>
       <c r="AA64" s="16"/>
       <c r="AB64" s="16"/>
       <c r="AC64" s="16"/>
@@ -8626,8 +8556,8 @@
       <c r="AR64" s="23"/>
     </row>
     <row r="65" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="146"/>
-      <c r="C65" s="153"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="106"/>
       <c r="E65" s="24"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -8670,10 +8600,10 @@
       <c r="AR65" s="25"/>
     </row>
     <row r="66" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="153" t="s">
+      <c r="B66" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E66" s="21"/>
@@ -8718,8 +8648,8 @@
       <c r="AR66" s="22"/>
     </row>
     <row r="67" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="146"/>
-      <c r="C67" s="153"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="106"/>
       <c r="E67" s="26"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -8742,7 +8672,7 @@
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
       <c r="Z67" s="16"/>
-      <c r="AA67" s="148"/>
+      <c r="AA67" s="69"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="16"/>
       <c r="AD67" s="16"/>
@@ -8762,8 +8692,8 @@
       <c r="AR67" s="23"/>
     </row>
     <row r="68" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="146"/>
-      <c r="C68" s="153"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="106"/>
       <c r="E68" s="24"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -8806,10 +8736,10 @@
       <c r="AR68" s="25"/>
     </row>
     <row r="69" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="146" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="153" t="s">
+      <c r="B69" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="106" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="21"/>
@@ -8854,8 +8784,8 @@
       <c r="AR69" s="22"/>
     </row>
     <row r="70" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="146"/>
-      <c r="C70" s="153"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="106"/>
       <c r="E70" s="26"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -8879,9 +8809,9 @@
       <c r="Y70" s="16"/>
       <c r="Z70" s="16"/>
       <c r="AA70" s="16"/>
-      <c r="AB70" s="148"/>
-      <c r="AC70" s="148"/>
-      <c r="AD70" s="148"/>
+      <c r="AB70" s="69"/>
+      <c r="AC70" s="69"/>
+      <c r="AD70" s="69"/>
       <c r="AE70" s="16"/>
       <c r="AF70" s="16"/>
       <c r="AG70" s="16"/>
@@ -8898,8 +8828,8 @@
       <c r="AR70" s="23"/>
     </row>
     <row r="71" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="146"/>
-      <c r="C71" s="153"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="106"/>
       <c r="E71" s="24"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -8942,10 +8872,10 @@
       <c r="AR71" s="25"/>
     </row>
     <row r="72" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="153" t="s">
+      <c r="B72" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="106" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="21"/>
@@ -8990,8 +8920,8 @@
       <c r="AR72" s="22"/>
     </row>
     <row r="73" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="146"/>
-      <c r="C73" s="153"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="106"/>
       <c r="E73" s="26"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -9016,8 +8946,8 @@
       <c r="Z73" s="16"/>
       <c r="AA73" s="16"/>
       <c r="AB73" s="16"/>
-      <c r="AC73" s="148"/>
-      <c r="AD73" s="148"/>
+      <c r="AC73" s="69"/>
+      <c r="AD73" s="69"/>
       <c r="AE73" s="16"/>
       <c r="AF73" s="16"/>
       <c r="AG73" s="16"/>
@@ -9034,8 +8964,8 @@
       <c r="AR73" s="23"/>
     </row>
     <row r="74" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="147"/>
-      <c r="C74" s="156"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="109"/>
       <c r="E74" s="24"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -9122,10 +9052,10 @@
       <c r="AR75" s="23"/>
     </row>
     <row r="76" spans="2:44" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="160"/>
+      <c r="B76" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="111"/>
       <c r="E76" s="26"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -9168,10 +9098,10 @@
       <c r="AR76" s="23"/>
     </row>
     <row r="77" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="152" t="s">
+      <c r="B77" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="113" t="s">
         <v>41</v>
       </c>
       <c r="E77" s="21"/>
@@ -9216,8 +9146,8 @@
       <c r="AR77" s="22"/>
     </row>
     <row r="78" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="146"/>
-      <c r="C78" s="153"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="106"/>
       <c r="E78" s="26"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -9259,8 +9189,8 @@
       <c r="AR78" s="23"/>
     </row>
     <row r="79" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="146"/>
-      <c r="C79" s="153"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="106"/>
       <c r="E79" s="24"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -9303,10 +9233,10 @@
       <c r="AR79" s="25"/>
     </row>
     <row r="80" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="146" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="153" t="s">
+      <c r="B80" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E80" s="21"/>
@@ -9351,8 +9281,8 @@
       <c r="AR80" s="22"/>
     </row>
     <row r="81" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="146"/>
-      <c r="C81" s="153"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="106"/>
       <c r="E81" s="26"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -9395,8 +9325,8 @@
       <c r="AR81" s="23"/>
     </row>
     <row r="82" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="146"/>
-      <c r="C82" s="153"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="106"/>
       <c r="E82" s="24"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -9439,10 +9369,10 @@
       <c r="AR82" s="25"/>
     </row>
     <row r="83" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="153" t="s">
+      <c r="B83" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="21"/>
@@ -9487,8 +9417,8 @@
       <c r="AR83" s="22"/>
     </row>
     <row r="84" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="146"/>
-      <c r="C84" s="153"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="106"/>
       <c r="E84" s="26"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -9531,8 +9461,8 @@
       <c r="AR84" s="23"/>
     </row>
     <row r="85" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="146"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="106"/>
       <c r="E85" s="24"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
@@ -9575,10 +9505,10 @@
       <c r="AR85" s="25"/>
     </row>
     <row r="86" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="106" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="21"/>
@@ -9623,8 +9553,8 @@
       <c r="AR86" s="22"/>
     </row>
     <row r="87" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="146"/>
-      <c r="C87" s="153"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="106"/>
       <c r="E87" s="26"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -9667,8 +9597,8 @@
       <c r="AR87" s="23"/>
     </row>
     <row r="88" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="146"/>
-      <c r="C88" s="153"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="106"/>
       <c r="E88" s="24"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -9711,10 +9641,10 @@
       <c r="AR88" s="25"/>
     </row>
     <row r="89" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="153" t="s">
+      <c r="B89" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="106" t="s">
         <v>41</v>
       </c>
       <c r="E89" s="21"/>
@@ -9759,8 +9689,8 @@
       <c r="AR89" s="22"/>
     </row>
     <row r="90" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="146"/>
-      <c r="C90" s="153"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="106"/>
       <c r="E90" s="26"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -9803,8 +9733,8 @@
       <c r="AR90" s="23"/>
     </row>
     <row r="91" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="146"/>
-      <c r="C91" s="153"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="106"/>
       <c r="E91" s="24"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -9847,10 +9777,10 @@
       <c r="AR91" s="25"/>
     </row>
     <row r="92" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="146" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="153" t="s">
+      <c r="B92" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="106" t="s">
         <v>41</v>
       </c>
       <c r="E92" s="21"/>
@@ -9895,8 +9825,8 @@
       <c r="AR92" s="22"/>
     </row>
     <row r="93" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="146"/>
-      <c r="C93" s="153"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="106"/>
       <c r="E93" s="26"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -9939,8 +9869,8 @@
       <c r="AR93" s="23"/>
     </row>
     <row r="94" spans="2:44" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="147"/>
-      <c r="C94" s="156"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="109"/>
       <c r="E94" s="24"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
@@ -10025,10 +9955,10 @@
       <c r="AR95" s="23"/>
     </row>
     <row r="96" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="161" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="162"/>
+      <c r="B96" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="116"/>
       <c r="E96" s="24"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -10068,13 +9998,13 @@
       <c r="AO96" s="35"/>
       <c r="AP96" s="35"/>
       <c r="AQ96" s="35"/>
-      <c r="AR96" s="149"/>
+      <c r="AR96" s="70"/>
     </row>
     <row r="97" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C97" s="155" t="s">
+      <c r="B97" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="117" t="s">
         <v>41</v>
       </c>
       <c r="E97" s="26"/>
@@ -10119,8 +10049,8 @@
       <c r="AR97" s="23"/>
     </row>
     <row r="98" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="69"/>
-      <c r="C98" s="78"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="88"/>
       <c r="E98" s="26"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -10163,8 +10093,8 @@
       <c r="AR98" s="23"/>
     </row>
     <row r="99" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="69"/>
-      <c r="C99" s="78"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="88"/>
       <c r="E99" s="26"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -10207,10 +10137,10 @@
       <c r="AR99" s="23"/>
     </row>
     <row r="100" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="78" t="s">
+      <c r="B100" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="88" t="s">
         <v>42</v>
       </c>
       <c r="E100" s="21"/>
@@ -10255,8 +10185,8 @@
       <c r="AR100" s="22"/>
     </row>
     <row r="101" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="69"/>
-      <c r="C101" s="78"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="88"/>
       <c r="E101" s="26"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -10299,8 +10229,8 @@
       <c r="AR101" s="23"/>
     </row>
     <row r="102" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="69"/>
-      <c r="C102" s="78"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="88"/>
       <c r="E102" s="24"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
@@ -10343,10 +10273,10 @@
       <c r="AR102" s="25"/>
     </row>
     <row r="103" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="78" t="s">
+      <c r="B103" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="88" t="s">
         <v>64</v>
       </c>
       <c r="E103" s="26"/>
@@ -10391,8 +10321,8 @@
       <c r="AR103" s="23"/>
     </row>
     <row r="104" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="69"/>
-      <c r="C104" s="78"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="88"/>
       <c r="E104" s="26"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -10432,11 +10362,11 @@
       <c r="AO104" s="16"/>
       <c r="AP104" s="16"/>
       <c r="AQ104" s="33"/>
-      <c r="AR104" s="150"/>
+      <c r="AR104" s="71"/>
     </row>
     <row r="105" spans="2:44" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="73"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="89"/>
       <c r="E105" s="27"/>
       <c r="F105" s="28"/>
       <c r="G105" s="28"/>
@@ -10480,28 +10410,51 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B2:AR4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="B96:C96"/>
@@ -10512,39 +10465,16 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B2:AR4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -10581,19 +10511,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
       <c r="M2" s="56"/>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
@@ -10608,17 +10538,17 @@
       <c r="X2" s="56"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="56"/>
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
@@ -10633,17 +10563,17 @@
       <c r="X3" s="56"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
       <c r="M4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
@@ -10685,7 +10615,7 @@
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="66" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F8" s="60">
         <v>1400000</v>
@@ -10710,7 +10640,7 @@
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="66" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F9" s="60">
         <v>0</v>
@@ -10908,11 +10838,11 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="F18" s="64">
         <f>SUM(F8:F16)</f>
         <v>2400000</v>
@@ -10984,176 +10914,176 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="130"/>
-      <c r="C2" s="133" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="139"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="131"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="140"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="132"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
       <c r="K4" s="43">
         <v>43753</v>
       </c>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="142"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="144"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106" t="s">
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="118" t="s">
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="121" t="s">
+      <c r="H9" s="159"/>
+      <c r="I9" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="100"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="104"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="100"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="2:19" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="165">
         <v>1400000</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="165">
         <f>+J31</f>
         <v>0</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="90">
+      <c r="H12" s="167"/>
+      <c r="I12" s="165">
         <v>0</v>
       </c>
-      <c r="J12" s="92"/>
+      <c r="J12" s="167"/>
       <c r="K12" s="46">
         <f>SUM(C12:J12)</f>
         <v>1400000</v>
@@ -11164,23 +11094,23 @@
       <c r="B13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="165">
         <f>+I41</f>
         <v>0</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="165">
         <v>2560000</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93">
+      <c r="H13" s="167"/>
+      <c r="I13" s="168">
         <v>0</v>
       </c>
-      <c r="J13" s="94"/>
+      <c r="J13" s="169"/>
       <c r="K13" s="46">
         <f>SUM(C13:J13)</f>
         <v>2560000</v>
@@ -11191,22 +11121,22 @@
       <c r="B14" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="165">
         <v>0</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="165">
         <v>13600000</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="90">
+      <c r="H14" s="167"/>
+      <c r="I14" s="165">
         <v>0</v>
       </c>
-      <c r="J14" s="92"/>
+      <c r="J14" s="167"/>
       <c r="K14" s="46">
         <f t="shared" ref="K14:K20" si="0">SUM(C14:J14)</f>
         <v>13600000</v>
@@ -11217,23 +11147,23 @@
       <c r="B15" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="165">
         <f>+I50</f>
         <v>0</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
       <c r="F15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="165">
         <v>0</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="90">
+      <c r="H15" s="167"/>
+      <c r="I15" s="165">
         <v>0</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="167"/>
       <c r="K15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11244,23 +11174,23 @@
       <c r="B16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="165">
         <f>+I59</f>
         <v>0</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
       <c r="F16" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="165">
         <v>700000</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93">
+      <c r="H16" s="167"/>
+      <c r="I16" s="168">
         <v>0</v>
       </c>
-      <c r="J16" s="94"/>
+      <c r="J16" s="169"/>
       <c r="K16" s="46">
         <f t="shared" si="0"/>
         <v>700000</v>
@@ -11271,21 +11201,21 @@
       <c r="B17" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="165">
         <f>+I68</f>
         <v>0</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
       <c r="F17" s="50"/>
-      <c r="G17" s="90">
+      <c r="G17" s="165">
         <v>500000</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93">
+      <c r="H17" s="167"/>
+      <c r="I17" s="168">
         <v>0</v>
       </c>
-      <c r="J17" s="94"/>
+      <c r="J17" s="169"/>
       <c r="K17" s="46">
         <f t="shared" si="0"/>
         <v>500000</v>
@@ -11296,20 +11226,20 @@
       <c r="B18" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="165">
         <v>0</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="90">
+      <c r="G18" s="165">
         <v>400000</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93">
+      <c r="H18" s="167"/>
+      <c r="I18" s="168">
         <v>0</v>
       </c>
-      <c r="J18" s="94"/>
+      <c r="J18" s="169"/>
       <c r="K18" s="46">
         <f t="shared" si="0"/>
         <v>400000</v>
@@ -11320,18 +11250,18 @@
       <c r="B19" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="165">
         <v>0</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="93">
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="168">
         <v>0</v>
       </c>
-      <c r="J19" s="94"/>
+      <c r="J19" s="169"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
     </row>
@@ -11339,20 +11269,20 @@
       <c r="B20" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="165">
         <v>1000000</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="90">
+      <c r="G20" s="165">
         <v>800000</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93">
+      <c r="H20" s="167"/>
+      <c r="I20" s="168">
         <v>0</v>
       </c>
-      <c r="J20" s="94"/>
+      <c r="J20" s="169"/>
       <c r="K20" s="46">
         <f t="shared" si="0"/>
         <v>1800000</v>
@@ -11363,23 +11293,23 @@
       <c r="B21" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="172">
         <f>SUM(C12:E20)</f>
         <v>2400000</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
       <c r="F21" s="54"/>
-      <c r="G21" s="95">
+      <c r="G21" s="172">
         <f>SUM(G12:H20)</f>
         <v>18560000</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="95">
+      <c r="H21" s="174"/>
+      <c r="I21" s="172">
         <f>SUM(I12:J20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="97"/>
+      <c r="J21" s="174"/>
       <c r="K21" s="55">
         <f>SUM(K12:K20)</f>
         <v>20960000</v>
@@ -11387,12 +11317,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:J8"/>
@@ -11401,37 +11356,12 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:H11"/>
     <mergeCell ref="I9:J11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">

--- a/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma31052021.xlsx
+++ b/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma31052021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma_1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
   <si>
     <t>OBJETIVOS</t>
   </si>
@@ -389,21 +389,12 @@
     <t>Comparación de los resultados obtenidos con el algoritmo de Matlab con el Listado de tipos de daños y condiciones más frecuentes.</t>
   </si>
   <si>
-    <t>Listado de tipos de daños o condiciones más frecuentes.</t>
-  </si>
-  <si>
-    <t>Técnicas de procesamiento de imágenes más comunes para identificar formas u objetos en imágenes termográficas de paneles fotovoltaicos.</t>
-  </si>
-  <si>
     <t>Desarrollo de pruebas de las técnicas de procesamiento de imágenes termográficas más comunes con Matlab.</t>
   </si>
   <si>
     <t>Identificación de la técnica de procesamiento de imágenes.</t>
   </si>
   <si>
-    <t>Listado de resultados de las técnicas más comunes.</t>
-  </si>
-  <si>
     <t>Desarrollar pruebas de asociación entre Matlab y el listado de imágenes de los tipos de daños o condiciones más frecuentes.</t>
   </si>
   <si>
@@ -416,69 +407,30 @@
     <t>Implementación de un algoritmo en Matlab de acuerdo al modelo establecido previamente.</t>
   </si>
   <si>
-    <t>Determinación de condición de un panel fotovoltaico a partir de imagen termografica previamente verificada.</t>
-  </si>
-  <si>
-    <t>Investigación sobre escenarios más comunes para la captura de imágenes termografica a paneles fotovoltaicos.</t>
-  </si>
-  <si>
-    <t>Listado de condiciones de captura de imágenes para la ejecución del algoritmo.</t>
-  </si>
-  <si>
     <t>Diseño de un modelo de ensayo para el algoritmo desarrollado.</t>
   </si>
   <si>
-    <t>Modelo de ensayo para el algoritmo desarrollado a partir de las condiciones de captura.</t>
-  </si>
-  <si>
     <t>Ejecución del algoritmo desarrollado mediante el modelo de ensayo.</t>
   </si>
   <si>
-    <t>Resultados de algoritmos; detección de condición de un panel fotovoltaico a parir de una imagen termográfica.</t>
-  </si>
-  <si>
     <t>Verificación de los resultados obtenidos.</t>
   </si>
   <si>
-    <t>Conclusión de la prueba realizada.</t>
-  </si>
-  <si>
-    <t>Algoritmo de procesamiento de imágenes  termográficas en Matlab.</t>
-  </si>
-  <si>
-    <t>Tipos  de daños o condiciones observados en los paneles solares mediante imágenes termográficas.</t>
-  </si>
-  <si>
     <t>Desarrollo de un listado de los tipos daño y condiciones más frecuentes observados en las imágenes termográfica de paneles fotovoltaicos.</t>
   </si>
   <si>
-    <t>Relación de las formas u objetos obtenidos en el procesamiento de imágenes termográficas en Matlab con el listado de tipos de daños o condiciones más frecuentes.</t>
-  </si>
-  <si>
     <t>Investigación sobre almacenamiento de información en Matlab para la respectiva construcción de conjunto de imágenes.</t>
   </si>
   <si>
-    <t>Definición almacenamiento de datos en Matlab.</t>
-  </si>
-  <si>
     <t>Implementación de un algoritmo de asociación entre el conjunto de imágenes y Matlab.</t>
   </si>
   <si>
-    <t>Algoritmo de asociación de imágenes tipificadas con Matlab.</t>
-  </si>
-  <si>
-    <t>Estructura básica implementada en Matlab del algoritmo.</t>
-  </si>
-  <si>
     <t>Integración del algoritmo de asociación de imágenes tipificadas con Matlab.</t>
   </si>
   <si>
     <t>Desarrollo de pruebas del algoritmo que determina la condición de un panel fotovoltaico a partir del análisis de imágenes termográficas.</t>
   </si>
   <si>
-    <t>Características de los escenarios más comunes donde se capturan imágenes termográficas a paneles fotovoltaicos.</t>
-  </si>
-  <si>
     <t>Establecer las condiciones de capturas de imágenes termográficas para la realización de pruebas con el algoritmos desarrollado.</t>
   </si>
   <si>
@@ -542,9 +494,6 @@
     <t>4.6. Documentación de hallazgos encontrados.</t>
   </si>
   <si>
-    <t>5. Ensayos y resultados.</t>
-  </si>
-  <si>
     <t>4. Implementación de algoritmo en Matlab.</t>
   </si>
   <si>
@@ -569,9 +518,6 @@
     <t>1.2. Desarrollo de pruebas de las técnicas de procesamiento de imágenes termográficas más comunes con Matlab.</t>
   </si>
   <si>
-    <t>5.1. Investigación sobre escenarios más comunes para la captura de imágenes termografica a paneles fotovoltaicos.</t>
-  </si>
-  <si>
     <t>5.2. Establecer las condiciones de capturas de imágenes termográficas para la realización de pruebas con el algoritmos desarrollado.</t>
   </si>
   <si>
@@ -590,9 +536,6 @@
     <t>10.000/h x 8h semanal x 40 semanas</t>
   </si>
   <si>
-    <t>Lista de imágenes con los tipos de daños o condiciones más frecuentes.</t>
-  </si>
-  <si>
     <t>6. Elaboración del documento, presentación.</t>
   </si>
   <si>
@@ -614,7 +557,76 @@
     <t>Implementar un algoritmo basado en técnicas de procesamiento de imágenes que determine la condición de un panel fotovoltaico a partir del análisis de imágenes termográficas.</t>
   </si>
   <si>
-    <t>Implementar escenarios de ensayo para verificar los resultados obtenidos.</t>
+    <t>Sección 1 del capitulo1: Técnicas de procesamiento de imágenes más comunes para identificar formas u objetos en imágenes termográficas de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>Sección 2 del capitulo1: Listado sobre resultados de las técnicas más comunes.</t>
+  </si>
+  <si>
+    <t>Sección 3 del capitulo1: Selección de la técnica de procesamiento de imágenes adecuada para el proyecto.</t>
+  </si>
+  <si>
+    <t>Sección 2 del capitulo 2: Listado sobre tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Sección 1 del capitulo 2: Tipos  de daños o condiciones observados en los paneles solares mediante imágenes termográficas.</t>
+  </si>
+  <si>
+    <t>Sección 3 del capitulo 2: Relación de las formas u objetos obtenidos en el procesamiento de imágenes termográficas en Matlab con el listado de tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Sección 1 del capitulo 3: Definición almacenamiento de datos en Matlab.</t>
+  </si>
+  <si>
+    <t>Sección 2 del capitulo 3: Interface de los datos consultados por Matlab a la base de datos.</t>
+  </si>
+  <si>
+    <t>Sección 1 del capitulo 4: Modelo de algoritmo a construir en Matlab.</t>
+  </si>
+  <si>
+    <t>Sección 2 del capitulo 4:Determinación de condición de un panel fotovoltaico a partir de imagen termografica previamente verificada.</t>
+  </si>
+  <si>
+    <t>Evaluar el desempeño del algoritmo implementado bajo condiciones controladas.</t>
+  </si>
+  <si>
+    <t>Sección 1 capitulo 5: Procedimiento de captura imágenes termográficas a paneles fotovoltaicos para realizar la evaluación.</t>
+  </si>
+  <si>
+    <t>Sección 2 capitulo 5: Condiciones de captura de imágenes para la ejecución del algoritmo.</t>
+  </si>
+  <si>
+    <t>Sección 3 capitulo 5: Modelo de evaluación para el algoritmo desarrollado a partir de las condiciones de captura.</t>
+  </si>
+  <si>
+    <t>Sección 4 capitulo 5: Resultados de algoritmos; detección de condición de un panel fotovoltaico a parir de una imagen termográfica.</t>
+  </si>
+  <si>
+    <t>Sección 5 capitulo 5: Conclusión de la prueba realizada.</t>
+  </si>
+  <si>
+    <t>Módulo 1 del Algoritmo de análisis: Algoritmo de procesamiento de imágenes  termográficas en Matlab.</t>
+  </si>
+  <si>
+    <t>Módulo 2 del Algoritmo de análisis: Conjunto de imágenes almacenadas con los tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Módulo 3 del Algoritmo de análisis: Algoritmo de asociación de imágenes tipificadas con Matlab.</t>
+  </si>
+  <si>
+    <t>Módulo 4 del Algoritmo de análisis: Estructura básica implementada en Matlab del algoritmo.</t>
+  </si>
+  <si>
+    <t>Módulo 4 del Algoritmo de análisis: Algoritmo de procesamiento de imágenes  termográficas en Matlab.</t>
+  </si>
+  <si>
+    <t>Módulo 4 del Algoritmo de análisis: Algoritmo capaz de obtener datos consultados de la base de datos.</t>
+  </si>
+  <si>
+    <t>Investigación sobre procedimiento de captura de imágenes termográficas que permita evaluar el desempeño del algoritmo.</t>
+  </si>
+  <si>
+    <t>5. Evaluación y resultados.</t>
   </si>
 </sst>
 </file>
@@ -2156,9 +2168,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2166,6 +2175,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5382,9 +5394,9 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5400,7 +5412,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -5423,9 +5435,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="103" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="76" t="s">
@@ -5433,32 +5445,32 @@
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="104"/>
       <c r="B4" s="77"/>
       <c r="C4" s="76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104"/>
       <c r="B5" s="77"/>
       <c r="C5" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="104"/>
       <c r="B6" s="77"/>
       <c r="C6" s="78" t="s">
@@ -5466,12 +5478,12 @@
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="76" t="s">
@@ -5479,21 +5491,21 @@
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="104"/>
       <c r="B8" s="77"/>
       <c r="C8" s="76" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="104"/>
       <c r="B9" s="77"/>
       <c r="C9" s="78" t="s">
@@ -5501,167 +5513,167 @@
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="78" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="103" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="76" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="76" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="77"/>
       <c r="C11" s="76" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="76" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="77"/>
       <c r="C12" s="76" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="76" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="104"/>
       <c r="B13" s="77"/>
       <c r="C13" s="78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="78" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="103" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="76" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="104"/>
       <c r="B15" s="77"/>
       <c r="C15" s="76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="78" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="104"/>
       <c r="B16" s="79"/>
       <c r="C16" s="76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="78" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="104"/>
       <c r="B17" s="79"/>
       <c r="C17" s="76" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="104"/>
       <c r="B18" s="79"/>
       <c r="C18" s="76" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="76" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="103" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="76" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="76" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="104"/>
       <c r="B20" s="77"/>
       <c r="C20" s="76" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="104"/>
       <c r="B21" s="79"/>
       <c r="C21" s="76" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="78" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="104"/>
       <c r="B22" s="79"/>
       <c r="C22" s="76" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D22" s="76"/>
       <c r="E22" s="76" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="105"/>
       <c r="B23" s="80"/>
       <c r="C23" s="76" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D23" s="76"/>
       <c r="E23" s="76" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5685,11 +5697,11 @@
   </sheetPr>
   <dimension ref="B1:AR105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AR105" sqref="B2:AR105"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:AR105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5846,7 +5858,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="72">
@@ -6019,7 +6031,7 @@
     </row>
     <row r="9" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="112" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C9" s="113" t="s">
         <v>42</v>
@@ -6155,7 +6167,7 @@
     </row>
     <row r="12" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="107" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>42</v>
@@ -6291,7 +6303,7 @@
     </row>
     <row r="15" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C15" s="106" t="s">
         <v>42</v>
@@ -6427,7 +6439,7 @@
     </row>
     <row r="18" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="107" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>42</v>
@@ -6563,7 +6575,7 @@
     </row>
     <row r="21" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="107" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C21" s="88" t="s">
         <v>41</v>
@@ -6743,7 +6755,7 @@
     </row>
     <row r="25" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="118" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C25" s="119"/>
       <c r="E25" s="36"/>
@@ -6789,7 +6801,7 @@
     </row>
     <row r="26" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="84" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C26" s="88" t="s">
         <v>41</v>
@@ -6925,7 +6937,7 @@
     </row>
     <row r="29" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="84" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C29" s="88" t="s">
         <v>41</v>
@@ -7061,7 +7073,7 @@
     </row>
     <row r="32" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="84" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C32" s="88" t="s">
         <v>41</v>
@@ -7197,7 +7209,7 @@
     </row>
     <row r="35" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C35" s="88" t="s">
         <v>41</v>
@@ -7377,7 +7389,7 @@
     </row>
     <row r="39" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="118" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C39" s="119"/>
       <c r="E39" s="26"/>
@@ -7423,7 +7435,7 @@
     </row>
     <row r="40" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="84" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>41</v>
@@ -7559,7 +7571,7 @@
     </row>
     <row r="43" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="84" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>42</v>
@@ -7695,7 +7707,7 @@
     </row>
     <row r="46" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="84" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C46" s="88" t="s">
         <v>42</v>
@@ -7787,7 +7799,7 @@
     </row>
     <row r="48" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="95"/>
-      <c r="C48" s="114"/>
+      <c r="C48" s="117"/>
       <c r="E48" s="24"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -7831,7 +7843,7 @@
     </row>
     <row r="49" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="84" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C49" s="88" t="s">
         <v>42</v>
@@ -7923,7 +7935,7 @@
     </row>
     <row r="51" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="95"/>
-      <c r="C51" s="114"/>
+      <c r="C51" s="117"/>
       <c r="E51" s="24"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -7967,9 +7979,9 @@
     </row>
     <row r="52" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="116" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="21"/>
@@ -8147,7 +8159,7 @@
     </row>
     <row r="56" spans="2:44" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="110" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C56" s="111"/>
       <c r="E56" s="26"/>
@@ -8193,7 +8205,7 @@
     </row>
     <row r="57" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="112" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C57" s="113" t="s">
         <v>42</v>
@@ -8329,7 +8341,7 @@
     </row>
     <row r="60" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="107" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C60" s="106" t="s">
         <v>42</v>
@@ -8465,7 +8477,7 @@
     </row>
     <row r="63" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="107" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C63" s="106" t="s">
         <v>42</v>
@@ -8601,7 +8613,7 @@
     </row>
     <row r="66" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="107" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C66" s="106" t="s">
         <v>42</v>
@@ -8737,7 +8749,7 @@
     </row>
     <row r="69" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="107" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C69" s="106" t="s">
         <v>41</v>
@@ -8873,7 +8885,7 @@
     </row>
     <row r="72" spans="2:44" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="107" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C72" s="106" t="s">
         <v>41</v>
@@ -9053,7 +9065,7 @@
     </row>
     <row r="76" spans="2:44" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="110" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C76" s="111"/>
       <c r="E76" s="26"/>
@@ -9099,7 +9111,7 @@
     </row>
     <row r="77" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="112" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C77" s="113" t="s">
         <v>41</v>
@@ -9234,7 +9246,7 @@
     </row>
     <row r="80" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="107" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C80" s="106" t="s">
         <v>42</v>
@@ -9370,7 +9382,7 @@
     </row>
     <row r="83" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="107" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C83" s="106" t="s">
         <v>42</v>
@@ -9506,7 +9518,7 @@
     </row>
     <row r="86" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="107" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C86" s="106" t="s">
         <v>42</v>
@@ -9642,7 +9654,7 @@
     </row>
     <row r="89" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="107" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C89" s="106" t="s">
         <v>41</v>
@@ -9778,7 +9790,7 @@
     </row>
     <row r="92" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="107" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C92" s="106" t="s">
         <v>41</v>
@@ -9955,10 +9967,10 @@
       <c r="AR95" s="23"/>
     </row>
     <row r="96" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="115" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="116"/>
+      <c r="B96" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="115"/>
       <c r="E96" s="24"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -10002,9 +10014,9 @@
     </row>
     <row r="97" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="116" t="s">
         <v>41</v>
       </c>
       <c r="E97" s="26"/>
@@ -10138,7 +10150,7 @@
     </row>
     <row r="100" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="84" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C100" s="88" t="s">
         <v>42</v>
@@ -10274,7 +10286,7 @@
     </row>
     <row r="103" spans="2:44" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="84" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C103" s="88" t="s">
         <v>64</v>
@@ -10615,7 +10627,7 @@
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="66" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F8" s="60">
         <v>1400000</v>
@@ -10640,7 +10652,7 @@
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="66" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F9" s="60">
         <v>0</v>
